--- a/Table2.xlsx
+++ b/Table2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>大股东比例</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>过去毛利率标准差</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>毛利率变化值</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -86,48 +82,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（现金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>短债）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>净资产</t>
-    </r>
-  </si>
-  <si>
     <t>有息负债率</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -152,10 +106,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>3年经营现金流波动</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EBITDA/总债务</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -184,31 +134,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>未来开支/总资产</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>行业因素</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>当前景气度</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6-12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月景气趋势</t>
-    </r>
-  </si>
-  <si>
     <t>公司的行业地位</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -222,6 +151,27 @@
   </si>
   <si>
     <t>权重</t>
+  </si>
+  <si>
+    <t>过去三年毛利率标准差</t>
+  </si>
+  <si>
+    <t>(现金-短债)/净资产, 含应付应收</t>
+  </si>
+  <si>
+    <t>(现金-短债)/净资产，含有息债务</t>
+  </si>
+  <si>
+    <t>三年经营现金流波动</t>
+  </si>
+  <si>
+    <t>未来开支计划</t>
+  </si>
+  <si>
+    <t>行业当前景气度</t>
+  </si>
+  <si>
+    <t>行业未来6-12月趋势</t>
   </si>
 </sst>
 </file>
@@ -231,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,11 +194,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,12 +282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,6 +290,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -679,14 +621,14 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4">
         <v>0.17499999999999999</v>
       </c>
     </row>
@@ -694,7 +636,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -702,7 +644,7 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>0.02</v>
       </c>
     </row>
@@ -710,7 +652,7 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.08</v>
       </c>
     </row>
@@ -718,7 +660,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -726,7 +668,7 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -734,7 +676,7 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>0.05</v>
       </c>
     </row>
@@ -742,7 +684,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -750,7 +692,7 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -758,7 +700,7 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>0.05</v>
       </c>
     </row>
@@ -766,7 +708,7 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -774,7 +716,7 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -782,211 +724,212 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
         <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
         <v>0.03</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
         <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5">
         <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="6">
         <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5">
         <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7">
+        <v>36</v>
+      </c>
+      <c r="B32" s="5">
         <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4">
         <v>0.02</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7">
+        <v>37</v>
+      </c>
+      <c r="B34" s="5">
         <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="5">
         <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="7">
+        <v>29</v>
+      </c>
+      <c r="B37" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7">
+        <v>30</v>
+      </c>
+      <c r="B38" s="5">
         <v>0.08</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="8">
+        <v>23</v>
+      </c>
+      <c r="B39" s="6">
         <v>0.02</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>